--- a/code/codeacad/docs/plans.xlsx
+++ b/code/codeacad/docs/plans.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="plans" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -15,9 +15,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Acad auto run app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,8 +65,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -66,6 +78,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -112,7 +132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -144,9 +164,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,6 +199,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,12 +375,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>42422</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -366,27 +417,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/codeacad/docs/plans.xlsx
+++ b/code/codeacad/docs/plans.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plans" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="bugs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,9 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Acad auto run app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom toolbar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom others</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -396,6 +408,24 @@
         <v>42422</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -407,7 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
